--- a/Spawning.xlsx
+++ b/Spawning.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="27795" windowHeight="13350"/>
+    <workbookView xWindow="480" yWindow="30" windowWidth="25185" windowHeight="13350"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
   <si>
     <t>SimpleSpinner</t>
   </si>
@@ -45,9 +45,6 @@
     <t>HomingSeeker</t>
   </si>
   <si>
-    <t>spawn around player</t>
-  </si>
-  <si>
     <t>name</t>
   </si>
   <si>
@@ -57,9 +54,6 @@
     <t>small swarm</t>
   </si>
   <si>
-    <t>spawn corner/random</t>
-  </si>
-  <si>
     <t>Total Kills:</t>
   </si>
   <si>
@@ -117,10 +111,10 @@
     <t>Snake</t>
   </si>
   <si>
-    <t>spawns after 20 spawned or something?</t>
-  </si>
-  <si>
-    <t>non swarm</t>
+    <t>spawn corner/random/player</t>
+  </si>
+  <si>
+    <t>nope</t>
   </si>
 </sst>
 </file>
@@ -462,22 +456,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C4:P17"/>
+  <dimension ref="C4:N22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.85546875" customWidth="1"/>
     <col min="4" max="4" width="9.140625" customWidth="1"/>
     <col min="5" max="14" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E4" t="s">
         <v>0</v>
@@ -486,33 +480,33 @@
         <v>1</v>
       </c>
       <c r="G4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" t="s">
         <v>2</v>
       </c>
-      <c r="H4" t="s">
-        <v>3</v>
-      </c>
       <c r="I4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J4" t="s">
         <v>5</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
+        <v>4</v>
+      </c>
+      <c r="L4" t="s">
+        <v>30</v>
+      </c>
+      <c r="M4" t="s">
+        <v>6</v>
+      </c>
+      <c r="N4" t="s">
         <v>7</v>
       </c>
-      <c r="K4" t="s">
-        <v>8</v>
-      </c>
-      <c r="L4" t="s">
-        <v>32</v>
-      </c>
-      <c r="M4" t="s">
-        <v>4</v>
-      </c>
-      <c r="N4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="3:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -520,288 +514,242 @@
       <c r="F5">
         <v>0.2</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>0.3</v>
       </c>
-      <c r="H5">
-        <v>0.4</v>
-      </c>
       <c r="I5">
+        <v>0.6</v>
+      </c>
+      <c r="J5">
         <v>0.8</v>
       </c>
-      <c r="J5">
-        <v>1.1000000000000001</v>
-      </c>
       <c r="K5">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="L5">
         <v>1.2</v>
       </c>
       <c r="M5">
+        <v>1.6</v>
+      </c>
+      <c r="N5">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="6" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="G6">
+        <v>0.1</v>
+      </c>
+      <c r="J6" t="s">
+        <v>32</v>
+      </c>
+      <c r="M6" t="s">
+        <v>32</v>
+      </c>
+      <c r="N6">
         <v>1.4</v>
       </c>
-      <c r="N5">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="6" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6">
-        <f>E5+0.3</f>
-        <v>0.3</v>
-      </c>
-      <c r="F6">
-        <f>F5+0.3</f>
-        <v>0.5</v>
-      </c>
-      <c r="G6">
-        <f>G5+0.3</f>
-        <v>0.6</v>
-      </c>
-      <c r="H6">
-        <f t="shared" ref="H6:N6" si="0">H5+0.3</f>
-        <v>0.7</v>
-      </c>
-      <c r="I6">
-        <f t="shared" si="0"/>
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="J6">
-        <f t="shared" si="0"/>
-        <v>1.4000000000000001</v>
-      </c>
-      <c r="K6">
-        <f t="shared" si="0"/>
-        <v>1.5</v>
-      </c>
-      <c r="L6">
-        <f t="shared" si="0"/>
-        <v>1.5</v>
-      </c>
-      <c r="M6">
-        <f t="shared" si="0"/>
-        <v>1.7</v>
-      </c>
-      <c r="N6">
-        <f t="shared" si="0"/>
-        <v>1.9000000000000001</v>
-      </c>
-      <c r="P6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7">
-        <v>0.6</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>1.4</v>
-      </c>
-      <c r="H7">
-        <v>1.3</v>
-      </c>
-      <c r="J7">
-        <v>2</v>
-      </c>
-      <c r="K7">
-        <v>2.1</v>
-      </c>
-      <c r="L7">
-        <v>2.4</v>
-      </c>
-      <c r="M7">
-        <v>2</v>
-      </c>
-      <c r="N7">
-        <v>3</v>
-      </c>
-      <c r="P7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="3:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>11</v>
       </c>
       <c r="E8">
+        <v>0.6</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1.3</v>
+      </c>
+      <c r="H8">
+        <v>1.4</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>2.4</v>
+      </c>
+      <c r="M8">
+        <v>3</v>
+      </c>
+      <c r="N8">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="11" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11">
         <v>1.6</v>
       </c>
-      <c r="F8">
+      <c r="F11">
         <v>1.8</v>
       </c>
-      <c r="G8">
+      <c r="G11">
+        <v>2</v>
+      </c>
+      <c r="H11">
         <v>2.1</v>
       </c>
-      <c r="H8">
-        <v>2</v>
-      </c>
-      <c r="J8">
+      <c r="K11">
+        <v>2.8</v>
+      </c>
+      <c r="L11">
+        <v>2.7</v>
+      </c>
+      <c r="M11">
+        <v>3.2</v>
+      </c>
+      <c r="N11">
         <v>2.5</v>
-      </c>
-      <c r="K8">
-        <v>2.5</v>
-      </c>
-      <c r="L8">
-        <v>2.7</v>
-      </c>
-      <c r="M8">
-        <v>2.8</v>
-      </c>
-      <c r="N8">
-        <v>3.2</v>
-      </c>
-    </row>
-    <row r="12" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>25</v>
-      </c>
-      <c r="F12">
-        <v>50</v>
-      </c>
-      <c r="G12">
-        <v>100</v>
-      </c>
-      <c r="H12">
-        <v>200</v>
-      </c>
-      <c r="I12">
-        <v>400</v>
-      </c>
-      <c r="J12">
-        <v>800</v>
-      </c>
-      <c r="K12">
-        <v>1600</v>
-      </c>
-      <c r="L12">
-        <v>3200</v>
-      </c>
-      <c r="M12">
-        <v>6400</v>
-      </c>
-      <c r="N12">
-        <v>12800</v>
-      </c>
-    </row>
-    <row r="13" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="D13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" t="s">
-        <v>16</v>
-      </c>
-      <c r="F13" t="s">
-        <v>17</v>
-      </c>
-      <c r="G13" t="s">
-        <v>18</v>
-      </c>
-      <c r="H13" t="s">
-        <v>19</v>
-      </c>
-      <c r="I13" t="s">
-        <v>20</v>
-      </c>
-      <c r="J13" t="s">
-        <v>21</v>
-      </c>
-      <c r="K13" t="s">
-        <v>22</v>
-      </c>
-      <c r="L13" t="s">
-        <v>23</v>
-      </c>
-      <c r="M13" t="s">
-        <v>24</v>
-      </c>
-      <c r="N13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <v>0.2</v>
-      </c>
-      <c r="F15">
-        <v>0.4</v>
-      </c>
-      <c r="G15">
-        <v>1</v>
-      </c>
-      <c r="H15">
-        <v>1.6</v>
-      </c>
-      <c r="I15">
-        <v>2.1</v>
-      </c>
-      <c r="J15">
-        <v>2.5</v>
-      </c>
-      <c r="K15">
-        <v>2.8</v>
-      </c>
-      <c r="L15">
-        <v>3.1</v>
-      </c>
-      <c r="M15">
-        <v>3.35</v>
-      </c>
-      <c r="N15">
-        <v>3.5</v>
       </c>
     </row>
     <row r="17" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
-        <v>30</v>
-      </c>
-      <c r="D17" t="s">
-        <v>31</v>
-      </c>
-      <c r="E17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>25</v>
+      </c>
+      <c r="F17">
+        <v>50</v>
+      </c>
+      <c r="G17">
+        <v>100</v>
+      </c>
+      <c r="H17">
+        <v>200</v>
+      </c>
+      <c r="I17">
+        <v>400</v>
+      </c>
+      <c r="J17">
+        <v>800</v>
+      </c>
+      <c r="K17">
+        <v>1600</v>
+      </c>
+      <c r="L17">
+        <v>3200</v>
+      </c>
+      <c r="M17">
+        <v>6400</v>
+      </c>
+      <c r="N17">
+        <v>12800</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" t="s">
+        <v>15</v>
+      </c>
+      <c r="G18" t="s">
+        <v>16</v>
+      </c>
+      <c r="H18" t="s">
+        <v>17</v>
+      </c>
+      <c r="I18" t="s">
+        <v>18</v>
+      </c>
+      <c r="J18" t="s">
+        <v>19</v>
+      </c>
+      <c r="K18" t="s">
+        <v>20</v>
+      </c>
+      <c r="L18" t="s">
+        <v>21</v>
+      </c>
+      <c r="M18" t="s">
+        <v>22</v>
+      </c>
+      <c r="N18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0.2</v>
+      </c>
+      <c r="F20">
+        <v>0.4</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>1.6</v>
+      </c>
+      <c r="I20">
+        <v>2.1</v>
+      </c>
+      <c r="J20">
+        <v>2.5</v>
+      </c>
+      <c r="K20">
+        <v>2.8</v>
+      </c>
+      <c r="L20">
+        <v>3.1</v>
+      </c>
+      <c r="M20">
+        <v>3.35</v>
+      </c>
+      <c r="N20">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" t="s">
+        <v>29</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1" t="s">
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" t="s">
         <v>27</v>
-      </c>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="K17:M17"/>
-    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="K22:M22"/>
   </mergeCells>
-  <conditionalFormatting sqref="D15:N15 K9 E5:N8">
-    <cfRule type="colorScale" priority="1">
+  <conditionalFormatting sqref="D20:N20 E8:I8 E11:N11 K8:N8 E5:N6">
+    <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
